--- a/data/tyre-dealers-name-and-address.xlsx
+++ b/data/tyre-dealers-name-and-address.xlsx
@@ -1164,7 +1164,7 @@
   <dimension ref="A1:B37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="1"/>
